--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB515AAE-7D2F-49CF-8690-B87EBD6FABD3}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3C3D452-0287-4E69-B381-2E6425A1A1FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>id_jugador</t>
   </si>
@@ -262,10 +262,31 @@
     <t>INVITADO ARQUERO</t>
   </si>
   <si>
-    <t>INVITADO JUGADOR</t>
-  </si>
-  <si>
     <t>FEDE</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>INVITADO DEFENSA</t>
+  </si>
+  <si>
+    <t>INVITADO MEDIOCAMPISTA</t>
+  </si>
+  <si>
+    <t>INVITADO DELANTERO</t>
+  </si>
+  <si>
+    <t>azul</t>
   </si>
 </sst>
 </file>
@@ -315,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,6 +348,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1516,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>73</v>
@@ -1503,7 +1525,7 @@
         <v>71</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1511,16 +1533,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1528,18 +1550,69 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>92</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
         <v>71</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
     </row>
@@ -1551,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,6 +1655,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45660</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1589,10 +1682,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,6 +1735,927 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="0">F3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>F14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3C3D452-0287-4E69-B381-2E6425A1A1FA}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EBAE29F-BEF0-4FD5-A3B7-837E398BC14D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -1686,12 +1686,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2618,6 +2630,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23">
         <v>88</v>
       </c>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EBAE29F-BEF0-4FD5-A3B7-837E398BC14D}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CF184F-D3BE-4B66-BB4A-98881F5E0540}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
   <si>
     <t>id_jugador</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>azul</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -332,11 +335,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +361,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1580,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>81</v>
@@ -1613,6 +1626,23 @@
         <v>1</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>93</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
@@ -1624,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1705,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46032</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1682,11 +1732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" si="0">F3+G3</f>
+        <f t="shared" ref="H3:H22" si="0">F3+G3</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -2046,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -2088,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -2130,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -2145,11 +2195,11 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2172,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2187,11 +2237,11 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2214,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2232,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>F13+G13</f>
         <v>0</v>
       </c>
       <c r="I13">
@@ -2256,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
@@ -2274,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
@@ -2284,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2298,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -2326,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2340,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2382,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>82</v>
@@ -2410,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2424,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -2449,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2466,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>82</v>
@@ -2491,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2508,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
@@ -2520,14 +2570,14 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2550,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -2562,20 +2612,20 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2592,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
@@ -2604,14 +2654,14 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2630,44 +2680,1010 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>93</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23:H46" si="1">F23+G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="B37">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6">
+        <v>13</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
         <v>0</v>
       </c>
     </row>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="529" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CF184F-D3BE-4B66-BB4A-98881F5E0540}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814F2289-F3A3-46DF-AEF5-BB2B5EA9C903}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>id_jugador</t>
   </si>
@@ -698,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -1732,11 +1732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H46" si="1">F23+G23</f>
+        <f t="shared" ref="H23:H47" si="1">F23+G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -3236,7 +3236,7 @@
         <v>82</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3646,44 +3646,85 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6">
         <v>13</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
         <v>0</v>
       </c>
     </row>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814F2289-F3A3-46DF-AEF5-BB2B5EA9C903}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D8CFBF-8256-4946-9A3F-20546AB796DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>id_jugador</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>RICARDO</t>
+  </si>
+  <si>
+    <t>fraccion_partido</t>
   </si>
 </sst>
 </file>
@@ -1732,11 +1735,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,9 +1757,10 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1796,8 +1800,11 @@
       <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1838,8 +1845,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1880,8 +1890,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1922,8 +1935,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1964,8 +1980,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2006,8 +2025,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2048,8 +2070,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2090,8 +2115,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2132,8 +2160,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2174,8 +2205,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2216,8 +2250,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2258,8 +2295,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2300,8 +2340,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2342,8 +2385,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2384,8 +2430,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2426,8 +2475,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2468,8 +2520,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2510,8 +2565,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2552,8 +2610,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2594,8 +2655,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2636,8 +2700,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2678,8 +2745,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2720,8 +2790,11 @@
       <c r="M23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2762,8 +2835,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2804,8 +2880,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2846,8 +2925,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2888,8 +2970,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2930,8 +3015,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2972,8 +3060,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3014,8 +3105,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3056,8 +3150,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3098,8 +3195,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3140,8 +3240,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3182,8 +3285,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3224,8 +3330,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3266,8 +3375,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3308,8 +3420,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3350,8 +3465,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3392,8 +3510,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3434,8 +3555,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3476,8 +3600,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3518,8 +3645,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3560,8 +3690,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3602,8 +3735,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3644,8 +3780,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3685,8 +3824,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2</v>
       </c>
@@ -3726,6 +3868,9 @@
       </c>
       <c r="M47" s="6">
         <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D8CFBF-8256-4946-9A3F-20546AB796DA}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C84117-FE52-4249-831F-46C07BED7A12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,8 +1738,8 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C84117-FE52-4249-831F-46C07BED7A12}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38FF513-8174-4E1F-B2DA-9D12A4BA1E7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>id_jugador</t>
   </si>
@@ -292,7 +292,13 @@
     <t>RICARDO</t>
   </si>
   <si>
-    <t>fraccion_partido</t>
+    <t>partido_completado</t>
+  </si>
+  <si>
+    <t>cancha</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
   </si>
 </sst>
 </file>
@@ -1657,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1674,7 @@
     <col min="1" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1687,8 +1693,11 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1707,8 +1716,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1726,6 +1738,9 @@
       </c>
       <c r="F3">
         <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1737,9 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1772,7 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38FF513-8174-4E1F-B2DA-9D12A4BA1E7A}"/>
+  <xr:revisionPtr revIDLastSave="935" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3C2A0E-1D73-4F78-934F-7DE939C5A596}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
   <si>
     <t>id_jugador</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>El Seminario</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,6 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +712,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1015,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
@@ -1045,7 +1049,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -1663,15 +1667,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1741,6 +1746,29 @@
       </c>
       <c r="G3" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>46039</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1750,11 +1778,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H47" si="1">F23+G23</f>
+        <f t="shared" ref="H23:H48" si="1">F23+G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -3885,6 +3913,1221 @@
         <v>0</v>
       </c>
       <c r="N47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="7">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <f>F49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7">
+        <v>56</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" ref="H50:H74" si="2">F50+G50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>3</v>
+      </c>
+      <c r="B51" s="7">
+        <v>19</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>3</v>
+      </c>
+      <c r="B52" s="7">
+        <v>22</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="7">
+        <v>88</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>3</v>
+      </c>
+      <c r="B54" s="7">
+        <v>71</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7">
+        <v>33</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>3</v>
+      </c>
+      <c r="B56" s="7">
+        <v>7</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>3</v>
+      </c>
+      <c r="B57" s="7">
+        <v>12</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>3</v>
+      </c>
+      <c r="B58" s="7">
+        <v>14</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>3</v>
+      </c>
+      <c r="B59" s="7">
+        <v>73</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>3</v>
+      </c>
+      <c r="B60" s="7">
+        <v>17</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>3</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7">
+        <v>51</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>3</v>
+      </c>
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>1</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>3</v>
+      </c>
+      <c r="B64" s="7">
+        <v>95</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>3</v>
+      </c>
+      <c r="B65" s="7">
+        <v>26</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>3</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>3</v>
+      </c>
+      <c r="B67" s="7">
+        <v>16</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>3</v>
+      </c>
+      <c r="B68" s="7">
+        <v>24</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>3</v>
+      </c>
+      <c r="B69" s="7">
+        <v>6</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>3</v>
+      </c>
+      <c r="B70" s="7">
+        <v>18</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>1</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7">
+        <v>10</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>69</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7">
+        <v>9</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>3</v>
+      </c>
+      <c r="B74" s="7">
+        <v>13</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
         <v>1</v>
       </c>
     </row>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="935" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3C2A0E-1D73-4F78-934F-7DE939C5A596}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDCC22F-3AE2-4C3E-933B-574AC020F6D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>id_jugador</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>El Seminario</t>
+  </si>
+  <si>
+    <t>GIOVANNI SOMBRA</t>
   </si>
 </sst>
 </file>
@@ -709,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,6 +1662,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1667,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,6 +1791,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>46046</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1778,11 +1821,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P65" sqref="P65"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,193 +3960,193 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>21</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>27</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <f>F49+G49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>56</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" ref="H50:H74" si="2">F50+G50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:H77" si="2">F50+G50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>19</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>3</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>22</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" t="s">
         <v>77</v>
       </c>
       <c r="D52">
@@ -4118,37 +4161,37 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>1</v>
-      </c>
-      <c r="K52" s="7">
-        <v>1</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53">
         <v>88</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" t="s">
         <v>77</v>
       </c>
       <c r="D53">
@@ -4163,37 +4206,37 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
-        <v>1</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54">
         <v>3</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54">
         <v>71</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" t="s">
         <v>77</v>
       </c>
       <c r="D54">
@@ -4208,37 +4251,37 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55">
         <v>3</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55">
         <v>33</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" t="s">
         <v>77</v>
       </c>
       <c r="D55">
@@ -4253,37 +4296,37 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7">
-        <v>0</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" t="s">
         <v>77</v>
       </c>
       <c r="D56">
@@ -4298,37 +4341,37 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7">
-        <v>1</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57">
         <v>3</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57">
         <v>12</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" t="s">
         <v>77</v>
       </c>
       <c r="D57">
@@ -4343,37 +4386,37 @@
       <c r="G57">
         <v>2</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58">
         <v>3</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>14</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" t="s">
         <v>77</v>
       </c>
       <c r="D58">
@@ -4388,37 +4431,37 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-      <c r="K58" s="7">
-        <v>0</v>
-      </c>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59">
         <v>3</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59">
         <v>73</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" t="s">
         <v>77</v>
       </c>
       <c r="D59">
@@ -4433,37 +4476,37 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7">
-        <v>0</v>
-      </c>
-      <c r="L59" s="7">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60">
         <v>3</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60">
         <v>17</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" t="s">
         <v>77</v>
       </c>
       <c r="D60">
@@ -4478,37 +4521,37 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="K60" s="7">
-        <v>0</v>
-      </c>
-      <c r="L60" s="7">
-        <v>0</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="7">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>77</v>
       </c>
       <c r="D61">
@@ -4523,37 +4566,37 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
-        <v>0</v>
-      </c>
-      <c r="K61" s="7">
-        <v>0</v>
-      </c>
-      <c r="L61" s="7">
-        <v>0</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62">
         <v>3</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62">
         <v>51</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>82</v>
       </c>
       <c r="D62">
@@ -4568,37 +4611,37 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-      <c r="K62" s="7">
-        <v>0</v>
-      </c>
-      <c r="L62" s="7">
-        <v>0</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63">
         <v>3</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63">
@@ -4613,37 +4656,37 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-      <c r="K63" s="7">
-        <v>1</v>
-      </c>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64">
         <v>95</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>82</v>
       </c>
       <c r="D64">
@@ -4658,37 +4701,37 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <v>0</v>
-      </c>
-      <c r="K64" s="7">
-        <v>0</v>
-      </c>
-      <c r="L64" s="7">
-        <v>0</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65">
         <v>3</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65">
         <v>26</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>82</v>
       </c>
       <c r="D65">
@@ -4703,37 +4746,37 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
-        <v>1</v>
-      </c>
-      <c r="K65" s="7">
-        <v>0</v>
-      </c>
-      <c r="L65" s="7">
-        <v>0</v>
-      </c>
-      <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66">
         <v>3</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>82</v>
       </c>
       <c r="D66">
@@ -4748,37 +4791,37 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
-        <v>0</v>
-      </c>
-      <c r="K66" s="7">
-        <v>0</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67">
         <v>3</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67">
         <v>16</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
@@ -4793,37 +4836,37 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" s="7">
-        <v>0</v>
-      </c>
-      <c r="L67" s="7">
-        <v>0</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68">
         <v>3</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68">
         <v>24</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>82</v>
       </c>
       <c r="D68">
@@ -4838,37 +4881,37 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
-        <v>0</v>
-      </c>
-      <c r="K68" s="7">
-        <v>0</v>
-      </c>
-      <c r="L68" s="7">
-        <v>0</v>
-      </c>
-      <c r="M68" s="7">
-        <v>0</v>
-      </c>
-      <c r="N68" s="7">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69">
         <v>3</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69">
@@ -4883,37 +4926,37 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0</v>
-      </c>
-      <c r="K69" s="7">
-        <v>0</v>
-      </c>
-      <c r="L69" s="7">
-        <v>0</v>
-      </c>
-      <c r="M69" s="7">
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70">
         <v>3</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70">
         <v>18</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
@@ -4928,37 +4971,37 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="7">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7">
-        <v>0</v>
-      </c>
-      <c r="K70" s="7">
-        <v>1</v>
-      </c>
-      <c r="L70" s="7">
-        <v>0</v>
-      </c>
-      <c r="M70" s="7">
-        <v>0</v>
-      </c>
-      <c r="N70" s="7">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71">
         <v>3</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71">
         <v>10</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71">
@@ -4973,37 +5016,37 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="7">
-        <v>0</v>
-      </c>
-      <c r="J71" s="7">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>2</v>
       </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-      <c r="L71" s="7">
-        <v>0</v>
-      </c>
-      <c r="M71" s="7">
-        <v>0</v>
-      </c>
-      <c r="N71" s="7">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>3</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" t="s">
         <v>82</v>
       </c>
       <c r="D72">
@@ -5018,37 +5061,37 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="7">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0</v>
-      </c>
-      <c r="M72" s="7">
-        <v>0</v>
-      </c>
-      <c r="N72" s="7">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73">
         <v>3</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" t="s">
         <v>82</v>
       </c>
       <c r="D73">
@@ -5063,73 +5106,1298 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
-        <v>1</v>
-      </c>
-      <c r="K73" s="7">
-        <v>0</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0</v>
-      </c>
-      <c r="M73" s="7">
-        <v>0</v>
-      </c>
-      <c r="N73" s="7">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>3</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>13</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7">
-        <v>0</v>
-      </c>
-      <c r="K74" s="7">
-        <v>0</v>
-      </c>
-      <c r="L74" s="7">
-        <v>0</v>
-      </c>
-      <c r="M74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="7">
-        <v>1</v>
-      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>4</v>
+      </c>
+      <c r="B75" s="7">
+        <v>81</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>4</v>
+      </c>
+      <c r="B76" s="7">
+        <v>88</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>4</v>
+      </c>
+      <c r="B77" s="7">
+        <v>95</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>4</v>
+      </c>
+      <c r="B78" s="7">
+        <v>27</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78:H101" si="3">F78+G78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>4</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>4</v>
+      </c>
+      <c r="B80" s="7">
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>4</v>
+      </c>
+      <c r="B81" s="7">
+        <v>33</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>4</v>
+      </c>
+      <c r="B82" s="7">
+        <v>19</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>4</v>
+      </c>
+      <c r="B83" s="7">
+        <v>71</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>4</v>
+      </c>
+      <c r="B84" s="7">
+        <v>10</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>4</v>
+      </c>
+      <c r="B85" s="7">
+        <v>26</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>4</v>
+      </c>
+      <c r="B86" s="7">
+        <v>12</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>4</v>
+      </c>
+      <c r="B87" s="7">
+        <v>13</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>4</v>
+      </c>
+      <c r="B88" s="7">
+        <v>51</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>4</v>
+      </c>
+      <c r="B89" s="7">
+        <v>73</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>4</v>
+      </c>
+      <c r="B90" s="7">
+        <v>1</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>4</v>
+      </c>
+      <c r="B91" s="7">
+        <v>16</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>4</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>4</v>
+      </c>
+      <c r="B93" s="7">
+        <v>15</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>4</v>
+      </c>
+      <c r="B94" s="7">
+        <v>22</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>4</v>
+      </c>
+      <c r="B95" s="7">
+        <v>24</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>4</v>
+      </c>
+      <c r="B96" s="7">
+        <v>80</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>4</v>
+      </c>
+      <c r="B97" s="7">
+        <v>52</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>4</v>
+      </c>
+      <c r="B98" s="7">
+        <v>6</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>4</v>
+      </c>
+      <c r="B99" s="7">
+        <v>17</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>4</v>
+      </c>
+      <c r="B100" s="7">
+        <v>14</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>4</v>
+      </c>
+      <c r="B101" s="7">
+        <v>9</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1112" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDCC22F-3AE2-4C3E-933B-574AC020F6D3}"/>
+  <xr:revisionPtr revIDLastSave="1137" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C415EBA1-69A2-4D19-A7C5-4A483659AC9E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>id_jugador</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>GIOVANNI SOMBRA</t>
+  </si>
+  <si>
+    <t>fue_arquero</t>
+  </si>
+  <si>
+    <t>fue_defensa</t>
+  </si>
+  <si>
+    <t>fue_mediocampista</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1821,11 +1830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,19 +1843,21 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1860,37 +1871,46 @@
         <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1913,7 +1933,6 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>F2+G2</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -1923,6 +1942,7 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <f>I2+J2</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -1932,10 +1952,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1958,7 +1987,6 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H22" si="0">F3+G3</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -1968,6 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K22" si="0">I3+J3</f>
         <v>0</v>
       </c>
       <c r="L3">
@@ -1977,10 +2006,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2003,18 +2041,18 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
@@ -2022,10 +2060,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2048,29 +2095,38 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2093,18 +2149,18 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -2112,10 +2168,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2138,18 +2203,18 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -2157,10 +2222,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2183,18 +2257,18 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -2202,10 +2276,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2228,18 +2311,18 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -2247,10 +2330,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2273,18 +2365,18 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -2292,10 +2384,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2315,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
@@ -2337,10 +2438,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2363,18 +2473,18 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
@@ -2382,10 +2492,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2408,7 +2527,6 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>F13+G13</f>
         <v>0</v>
       </c>
       <c r="I13">
@@ -2418,6 +2536,7 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <f>I13+J13</f>
         <v>0</v>
       </c>
       <c r="L13">
@@ -2427,10 +2546,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2453,20 +2581,20 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2474,8 +2602,17 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2498,18 +2635,18 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
@@ -2517,10 +2654,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2543,18 +2689,18 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
@@ -2562,10 +2708,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2588,18 +2743,18 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
@@ -2609,8 +2764,17 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2633,29 +2797,38 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2678,18 +2851,18 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2697,10 +2870,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2717,24 +2899,24 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
@@ -2742,10 +2924,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2765,32 +2956,41 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2807,35 +3007,44 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2858,7 +3067,6 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H48" si="1">F23+G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -2868,6 +3076,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" ref="K23:K48" si="1">I23+J23</f>
         <v>0</v>
       </c>
       <c r="L23" s="6">
@@ -2877,10 +3086,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2903,18 +3121,18 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
@@ -2922,10 +3140,19 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2948,18 +3175,18 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
@@ -2967,10 +3194,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2993,29 +3229,38 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3029,38 +3274,47 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3083,18 +3337,18 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
@@ -3102,10 +3356,19 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3128,18 +3391,18 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
         <v>0</v>
       </c>
@@ -3147,10 +3410,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3173,29 +3445,38 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3218,18 +3499,18 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31">
         <v>0</v>
       </c>
@@ -3237,10 +3518,19 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3254,38 +3544,47 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>4</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3305,21 +3604,21 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
@@ -3327,10 +3626,19 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3350,32 +3658,41 @@
         <v>0</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3398,18 +3715,18 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
@@ -3417,10 +3734,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3443,29 +3769,38 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3488,18 +3823,18 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -3507,10 +3842,19 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3533,18 +3877,18 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
@@ -3552,10 +3896,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3578,18 +3931,18 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
@@ -3597,10 +3950,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3623,18 +3985,18 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
@@ -3642,10 +4004,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3668,18 +4039,18 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -3687,10 +4058,19 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3710,21 +4090,21 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -3732,10 +4112,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3758,18 +4147,18 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -3777,10 +4166,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3803,18 +4201,18 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
@@ -3822,10 +4220,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3848,29 +4255,38 @@
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3911,10 +4327,19 @@
         <v>0</v>
       </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2</v>
       </c>
@@ -3934,21 +4359,21 @@
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
       <c r="L47" s="6">
         <v>0</v>
       </c>
@@ -3956,10 +4381,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3982,18 +4416,18 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
         <v>0</v>
       </c>
@@ -4001,10 +4435,19 @@
         <v>0</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4027,7 +4470,6 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f>F49+G49</f>
         <v>0</v>
       </c>
       <c r="I49">
@@ -4037,6 +4479,7 @@
         <v>0</v>
       </c>
       <c r="K49">
+        <f>I49+J49</f>
         <v>0</v>
       </c>
       <c r="L49">
@@ -4046,10 +4489,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4072,7 +4524,6 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:H77" si="2">F50+G50</f>
         <v>0</v>
       </c>
       <c r="I50">
@@ -4082,6 +4533,7 @@
         <v>0</v>
       </c>
       <c r="K50">
+        <f t="shared" ref="K50:K77" si="2">I50+J50</f>
         <v>0</v>
       </c>
       <c r="L50">
@@ -4091,10 +4543,19 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4117,18 +4578,18 @@
         <v>0</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
       <c r="L51">
         <v>0</v>
       </c>
@@ -4136,10 +4597,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4162,29 +4632,38 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4201,35 +4680,44 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4252,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
       <c r="L54">
         <v>0</v>
       </c>
@@ -4271,10 +4759,19 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4297,18 +4794,18 @@
         <v>0</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
       <c r="L55">
         <v>0</v>
       </c>
@@ -4316,10 +4813,19 @@
         <v>0</v>
       </c>
       <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4342,18 +4848,18 @@
         <v>0</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
       <c r="L56">
         <v>0</v>
       </c>
@@ -4363,8 +4869,17 @@
       <c r="N56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4381,24 +4896,24 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>2</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
         <v>0</v>
       </c>
@@ -4406,10 +4921,19 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4426,24 +4950,24 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
       <c r="L58">
         <v>0</v>
       </c>
@@ -4451,10 +4975,19 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4471,24 +5004,24 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
       <c r="L59">
         <v>0</v>
       </c>
@@ -4496,10 +5029,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4522,29 +5064,38 @@
         <v>0</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
       <c r="N60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4567,18 +5118,18 @@
         <v>0</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
       <c r="L61">
         <v>0</v>
       </c>
@@ -4586,10 +5137,19 @@
         <v>0</v>
       </c>
       <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4612,18 +5172,18 @@
         <v>0</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
       <c r="L62">
         <v>0</v>
       </c>
@@ -4631,10 +5191,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4657,18 +5226,18 @@
         <v>0</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="L63">
         <v>0</v>
       </c>
@@ -4676,10 +5245,19 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4702,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
       <c r="L64">
         <v>0</v>
       </c>
@@ -4721,10 +5299,19 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -4747,29 +5334,38 @@
         <v>0</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -4792,18 +5388,18 @@
         <v>0</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
       <c r="L66">
         <v>0</v>
       </c>
@@ -4811,10 +5407,19 @@
         <v>0</v>
       </c>
       <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -4831,24 +5436,24 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0</v>
       </c>
@@ -4856,10 +5461,19 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4882,18 +5496,18 @@
         <v>0</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>0</v>
       </c>
@@ -4901,10 +5515,19 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -4921,24 +5544,24 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
       <c r="L69">
         <v>0</v>
       </c>
@@ -4946,10 +5569,19 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -4972,18 +5604,18 @@
         <v>0</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
       <c r="L70">
         <v>0</v>
       </c>
@@ -4993,8 +5625,17 @@
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -5017,63 +5658,72 @@
         <v>0</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>2</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
       <c r="N71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="7">
         <v>69</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
         <v>0</v>
       </c>
@@ -5081,55 +5731,73 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="7">
         <v>9</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>3</v>
       </c>
@@ -5149,21 +5817,21 @@
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I74" s="6">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
       <c r="L74" s="6">
         <v>0</v>
       </c>
@@ -5171,1233 +5839,1475 @@
         <v>0</v>
       </c>
       <c r="N74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <v>0</v>
+      </c>
+      <c r="P74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>4</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75">
         <v>81</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" s="7">
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75" s="7">
-        <v>0</v>
-      </c>
-      <c r="J75" s="7">
-        <v>0</v>
-      </c>
-      <c r="K75" s="7">
-        <v>0</v>
-      </c>
-      <c r="L75" s="7">
-        <v>0</v>
-      </c>
-      <c r="M75" s="7">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>4</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76">
         <v>88</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="7">
-        <v>0</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7">
-        <v>0</v>
-      </c>
-      <c r="K76" s="7">
-        <v>0</v>
-      </c>
-      <c r="L76" s="7">
-        <v>0</v>
-      </c>
-      <c r="M76" s="7">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>4</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77">
         <v>95</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="7">
-        <v>0</v>
-      </c>
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
-        <v>0</v>
-      </c>
-      <c r="K77" s="7">
-        <v>0</v>
-      </c>
-      <c r="L77" s="7">
-        <v>0</v>
-      </c>
-      <c r="M77" s="7">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>4</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78">
         <v>27</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="7">
-        <v>0</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H101" si="3">F78+G78</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
-        <v>0</v>
-      </c>
-      <c r="K78" s="7">
-        <v>0</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K101" si="3">I78+J78</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>4</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="7">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
-      <c r="J79" s="7">
-        <v>0</v>
-      </c>
-      <c r="K79" s="7">
-        <v>0</v>
-      </c>
-      <c r="L79" s="7">
-        <v>0</v>
-      </c>
-      <c r="M79" s="7">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>4</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80">
         <v>21</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" t="s">
         <v>77</v>
       </c>
-      <c r="D80" s="7">
-        <v>0</v>
-      </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7">
-        <v>0</v>
-      </c>
-      <c r="K80" s="7">
-        <v>0</v>
-      </c>
-      <c r="L80" s="7">
-        <v>0</v>
-      </c>
-      <c r="M80" s="7">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>4</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81">
         <v>33</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="7">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7">
-        <v>0</v>
-      </c>
-      <c r="K81" s="7">
-        <v>0</v>
-      </c>
-      <c r="L81" s="7">
-        <v>0</v>
-      </c>
-      <c r="M81" s="7">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>4</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82">
         <v>19</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="7">
-        <v>0</v>
-      </c>
-      <c r="E82" s="7">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7">
-        <v>0</v>
-      </c>
-      <c r="K82" s="7">
-        <v>0</v>
-      </c>
-      <c r="L82" s="7">
-        <v>0</v>
-      </c>
-      <c r="M82" s="7">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>4</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83">
         <v>71</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="7">
-        <v>0</v>
-      </c>
-      <c r="E83" s="7">
-        <v>0</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7">
-        <v>0</v>
-      </c>
-      <c r="K83" s="7">
-        <v>0</v>
-      </c>
-      <c r="L83" s="7">
-        <v>0</v>
-      </c>
-      <c r="M83" s="7">
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84">
         <v>10</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="7">
-        <v>0</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <v>0</v>
-      </c>
-      <c r="K84" s="7">
-        <v>0</v>
-      </c>
-      <c r="L84" s="7">
-        <v>0</v>
-      </c>
-      <c r="M84" s="7">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>4</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85">
         <v>26</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="7">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7">
-        <v>0</v>
-      </c>
-      <c r="K85" s="7">
-        <v>0</v>
-      </c>
-      <c r="L85" s="7">
-        <v>0</v>
-      </c>
-      <c r="M85" s="7">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>4</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86">
         <v>12</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7">
-        <v>0</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>2</v>
       </c>
-      <c r="H86">
+      <c r="K86">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="J86">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
         <v>2</v>
       </c>
-      <c r="K86" s="7">
-        <v>0</v>
-      </c>
-      <c r="L86" s="7">
-        <v>0</v>
-      </c>
-      <c r="M86" s="7">
-        <v>0</v>
-      </c>
       <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>4</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87">
         <v>13</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="7">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7">
-        <v>0</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7">
-        <v>0</v>
-      </c>
-      <c r="K87" s="7">
-        <v>0</v>
-      </c>
-      <c r="L87" s="7">
-        <v>0</v>
-      </c>
-      <c r="M87" s="7">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>4</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88">
         <v>51</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="7">
-        <v>0</v>
-      </c>
-      <c r="E88" s="7">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0</v>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="7">
-        <v>0</v>
-      </c>
-      <c r="J88" s="7">
-        <v>0</v>
-      </c>
-      <c r="K88" s="7">
-        <v>0</v>
-      </c>
-      <c r="L88" s="7">
-        <v>0</v>
-      </c>
-      <c r="M88" s="7">
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89">
         <v>73</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="7">
-        <v>0</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" s="7">
-        <v>0</v>
-      </c>
-      <c r="L89" s="7">
-        <v>0</v>
-      </c>
-      <c r="M89" s="7">
-        <v>0</v>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>4</v>
       </c>
-      <c r="B90" s="7">
-        <v>1</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>82</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
-      <c r="E90" s="7">
-        <v>0</v>
-      </c>
-      <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="7">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>0</v>
-      </c>
-      <c r="K90" s="7">
-        <v>0</v>
-      </c>
-      <c r="L90" s="7">
-        <v>0</v>
-      </c>
-      <c r="M90" s="7">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>4</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91">
         <v>16</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="7">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7">
-        <v>0</v>
-      </c>
-      <c r="F91" s="7">
-        <v>0</v>
-      </c>
-      <c r="G91" s="7">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I91" s="7">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" s="7">
-        <v>0</v>
-      </c>
-      <c r="L91" s="7">
-        <v>0</v>
-      </c>
-      <c r="M91" s="7">
-        <v>0</v>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>4</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" t="s">
         <v>82</v>
       </c>
-      <c r="D92" s="7">
-        <v>0</v>
-      </c>
-      <c r="E92" s="7">
-        <v>0</v>
-      </c>
-      <c r="F92" s="7">
-        <v>0</v>
-      </c>
-      <c r="G92" s="7">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I92" s="7">
-        <v>0</v>
-      </c>
-      <c r="J92" s="7">
-        <v>0</v>
-      </c>
-      <c r="K92" s="7">
-        <v>0</v>
-      </c>
-      <c r="L92" s="7">
-        <v>0</v>
-      </c>
-      <c r="M92" s="7">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>4</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93">
         <v>15</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="7">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7">
-        <v>0</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="7">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I93" s="7">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
-        <v>0</v>
-      </c>
-      <c r="K93" s="7">
-        <v>0</v>
-      </c>
-      <c r="L93" s="7">
-        <v>0</v>
-      </c>
-      <c r="M93" s="7">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>4</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94">
         <v>22</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="7">
-        <v>0</v>
-      </c>
-      <c r="E94" s="7">
-        <v>0</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="7">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I94" s="7">
-        <v>0</v>
-      </c>
-      <c r="J94" s="7">
-        <v>0</v>
-      </c>
-      <c r="K94" s="7">
-        <v>0</v>
-      </c>
-      <c r="L94" s="7">
-        <v>0</v>
-      </c>
-      <c r="M94" s="7">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>4</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95">
         <v>24</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="7">
-        <v>0</v>
-      </c>
-      <c r="E95" s="7">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
-        <v>0</v>
-      </c>
-      <c r="G95" s="7">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
-        <v>0</v>
-      </c>
-      <c r="K95" s="7">
-        <v>0</v>
-      </c>
-      <c r="L95" s="7">
-        <v>0</v>
-      </c>
-      <c r="M95" s="7">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>4</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96">
         <v>80</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="7">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I96" s="7">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="7">
-        <v>0</v>
-      </c>
-      <c r="M96" s="7">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>4</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97">
         <v>52</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="7">
-        <v>0</v>
-      </c>
-      <c r="E97" s="7">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7">
-        <v>0</v>
-      </c>
-      <c r="G97" s="7">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I97" s="7">
-        <v>0</v>
-      </c>
-      <c r="J97" s="7">
-        <v>0</v>
-      </c>
-      <c r="K97" s="7">
-        <v>0</v>
-      </c>
-      <c r="L97" s="7">
-        <v>0</v>
-      </c>
-      <c r="M97" s="7">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>4</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98">
         <v>6</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="7">
-        <v>0</v>
-      </c>
-      <c r="E98" s="7">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I98" s="7">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="7">
-        <v>0</v>
-      </c>
-      <c r="M98" s="7">
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99">
         <v>17</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="7">
-        <v>0</v>
-      </c>
-      <c r="E99" s="7">
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
-        <v>0</v>
-      </c>
-      <c r="G99" s="7">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I99" s="7">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99" s="7">
-        <v>0</v>
-      </c>
-      <c r="M99" s="7">
-        <v>0</v>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>4</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100">
         <v>14</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="7">
-        <v>0</v>
-      </c>
-      <c r="E100" s="7">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <v>2</v>
       </c>
-      <c r="H100">
+      <c r="K100">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I100" s="7">
-        <v>0</v>
-      </c>
-      <c r="J100" s="7">
-        <v>0</v>
-      </c>
-      <c r="K100" s="7">
-        <v>0</v>
-      </c>
-      <c r="L100" s="7">
-        <v>0</v>
-      </c>
-      <c r="M100" s="7">
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>4</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101">
         <v>9</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" t="s">
         <v>82</v>
       </c>
-      <c r="D101" s="7">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>0</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I101" s="7">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" s="7">
-        <v>0</v>
-      </c>
-      <c r="L101" s="7">
-        <v>0</v>
-      </c>
-      <c r="M101" s="7">
-        <v>0</v>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D103" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1137" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C415EBA1-69A2-4D19-A7C5-4A483659AC9E}"/>
+  <xr:revisionPtr revIDLastSave="1481" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{960C9E8D-2D81-44A2-83AB-2C5E14AB2FCB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>id_jugador</t>
   </si>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,7 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1406,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1696,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,6 +1822,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>46053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1830,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,31 +5712,31 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>3</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="7">
-        <v>0</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
@@ -5744,31 +5766,31 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73">
         <v>3</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="7">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
@@ -6045,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K101" si="3">I78+J78</f>
+        <f t="shared" ref="K78:K123" si="3">I78+J78</f>
         <v>0</v>
       </c>
       <c r="L78">
@@ -7306,6 +7328,1194 @@
         <v>0</v>
       </c>
       <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>88</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>71</v>
+      </c>
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>26</v>
+      </c>
+      <c r="C115" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>80</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
         <v>1</v>
       </c>
     </row>

--- a/2026/estadisticas_2026.xlsx
+++ b/2026/estadisticas_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2026/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1481" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{960C9E8D-2D81-44A2-83AB-2C5E14AB2FCB}"/>
+  <xr:revisionPtr revIDLastSave="1791" documentId="8_{0FD1867A-7DAA-4F4A-8A20-0B698D519579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4BFA2AF-E0A6-4512-B4B6-B3B58043719A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{13F91CB8-CF47-44CB-84C1-93A20A2C742B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="93">
   <si>
     <t>id_jugador</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>fue_mediocampista</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3823-1E62-4455-A91D-2EBCB6A24091}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488AB1C-4576-440C-8D7D-A31AA9C1676C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,6 +1848,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>46060</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1852,11 +1878,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6726-3602-4466-9A97-644319A2108B}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6067,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K123" si="3">I78+J78</f>
+        <f t="shared" ref="K78:K141" si="3">I78+J78</f>
         <v>0</v>
       </c>
       <c r="L78">
@@ -7278,56 +7304,56 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="6">
         <v>4</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>9</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
+      <c r="L101" s="6">
+        <v>0</v>
+      </c>
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8466,57 +8492,1623 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="6">
         <v>5</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>13</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
+      <c r="D123" s="6">
+        <v>0</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="6">
+        <v>0</v>
+      </c>
+      <c r="I123" s="6">
+        <v>1</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
+      <c r="L123" s="6">
+        <v>0</v>
+      </c>
+      <c r="M123" s="6">
+        <v>1</v>
+      </c>
+      <c r="N123" s="6">
+        <v>0</v>
+      </c>
+      <c r="O123" s="6">
+        <v>0</v>
+      </c>
+      <c r="P123" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>27</v>
+      </c>
+      <c r="C127" t="s">
+        <v>82</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>85</v>
+      </c>
+      <c r="C128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>71</v>
+      </c>
+      <c r="C130" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>73</v>
+      </c>
+      <c r="C136" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>77</v>
+      </c>
+      <c r="C137" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>82</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>51</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>77</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <f t="shared" ref="K142:K152" si="4">I142+J142</f>
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>95</v>
+      </c>
+      <c r="C143" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ref="K143" si="5">I143+J143</f>
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>88</v>
+      </c>
+      <c r="C144" t="s">
+        <v>77</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>77</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>77</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>77</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>77</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>77</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>6</v>
+      </c>
+      <c r="B152" s="6">
+        <v>13</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" s="6">
+        <v>2</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0</v>
+      </c>
+      <c r="F152" s="6">
+        <v>0</v>
+      </c>
+      <c r="G152" s="6">
+        <v>0</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0</v>
+      </c>
+      <c r="K152" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="6">
+        <v>0</v>
+      </c>
+      <c r="M152" s="6">
+        <v>0</v>
+      </c>
+      <c r="N152" s="6">
+        <v>0</v>
+      </c>
+      <c r="O152" s="6">
+        <v>0</v>
+      </c>
+      <c r="P152" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="6">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
